--- a/maps/LaboratoryTestResult-LaboratoryTest.xlsx
+++ b/maps/LaboratoryTestResult-LaboratoryTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nictiznl-my.sharepoint.com/personal/wouter_zanen_nictiz_nl/Documents/Documenten/GitHub/eu-nl-compared/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{197B9C85-7289-4411-AFAB-53F1D76B6539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F6AEA1E-34D2-40E1-8361-BF147F19E069}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{197B9C85-7289-4411-AFAB-53F1D76B6539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CA03B74-9F57-4F81-BD37-5FF57C2AC601}"/>
   <bookViews>
-    <workbookView xWindow="2496" yWindow="684" windowWidth="20544" windowHeight="13092" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,34 +216,34 @@
     <t>EHDSLaboratoryObservation.pointOfCareTest</t>
   </si>
   <si>
-    <t>LaboratoryTestResult.Performer::HealthcareProvider</t>
-  </si>
-  <si>
-    <t>LaboratoryTestResultTestResultStatus</t>
-  </si>
-  <si>
-    <t>LaboratoryTestResult.TestCode</t>
-  </si>
-  <si>
-    <t>LaboratoryTestResult.TestResult</t>
-  </si>
-  <si>
-    <t>LaboratoryTestResult.TestMethod</t>
-  </si>
-  <si>
-    <t>LaboratoryTestResult.ReferenceRangeUpperLimit</t>
-  </si>
-  <si>
-    <t>LaboratoryTestResult.ResultInterpretation</t>
-  </si>
-  <si>
-    <t>LaboratoryTestResult.ReferenceRangeLowerLimit</t>
-  </si>
-  <si>
-    <t>LaboratoryTestResult.ResultFlags</t>
-  </si>
-  <si>
-    <t>LaboratoryTestResult.RelatedResult::LaboratoryTestResult</t>
+    <t>LaboratoryTestResult.LaboratoryTest.TestResultStatus</t>
+  </si>
+  <si>
+    <t>LaboratoryTestResult.LaboratoryTest.TestCode</t>
+  </si>
+  <si>
+    <t>LaboratoryTestResult.LaboratoryTest.TestResult</t>
+  </si>
+  <si>
+    <t>LaboratoryTestResult.LaboratoryTest.TestMethod</t>
+  </si>
+  <si>
+    <t>LaboratoryTestResult.LaboratoryTest.Performer::HealthcareProvider</t>
+  </si>
+  <si>
+    <t>LaboratoryTestResult.LaboratoryTest.ReferenceRangeUpperLimit</t>
+  </si>
+  <si>
+    <t>LaboratoryTestResult.LaboratoryTest.ResultInterpretation</t>
+  </si>
+  <si>
+    <t>LaboratoryTestResult.LaboratoryTest.ReferenceRangeLowerLimit</t>
+  </si>
+  <si>
+    <t>LaboratoryTestResult.LaboratoryTest.ResultFlags</t>
+  </si>
+  <si>
+    <t>LaboratoryTestResult.LaboratoryTest.TestDateTime</t>
   </si>
 </sst>
 </file>
@@ -586,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R48"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,7 +706,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -739,13 +739,16 @@
       <c r="A16" t="s">
         <v>33</v>
       </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -758,7 +761,7 @@
         <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -771,7 +774,7 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -789,7 +792,7 @@
         <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -911,11 +914,6 @@
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -924,15 +922,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BAFAE49EF5FC2A44A9A24B379C77993A" ma:contentTypeVersion="18" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="4e3f09d53704208a567efd423a8e8ffb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b19602bd-a67a-4df8-b412-b401dd608f7a" xmlns:ns3="3af30693-c405-4a5b-908a-bd1dc294f76b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5e8dd9eed0ce6952e5fe39cbc0c50bd" ns2:_="" ns3:_="">
     <xsd:import namespace="b19602bd-a67a-4df8-b412-b401dd608f7a"/>
@@ -1189,6 +1178,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1202,14 +1200,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D0E272B-3645-4028-A960-0B8D0057D9EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{569FF7CE-CFE6-4FA6-80F1-6CFE45CA983A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1224,6 +1214,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D0E272B-3645-4028-A960-0B8D0057D9EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
